--- a/image/compartmentdefinition.xlsx
+++ b/image/compartmentdefinition.xlsx
@@ -843,46 +843,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.08203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.32421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.84375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.34375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.80859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.3828125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/compartmentdefinition.xlsx
+++ b/image/compartmentdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="220">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -365,10 +365,6 @@
   </si>
   <si>
     <t>CompartmentDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the compartment definition</t>
@@ -843,46 +839,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.6796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.32421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="81.89453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="58.80859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.3828125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="58.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2174,16 +2170,16 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2254,10 +2250,10 @@
         <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>41</v>
@@ -2265,7 +2261,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2288,19 +2284,19 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -2349,7 +2345,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>50</v>
@@ -2358,7 +2354,7 @@
         <v>50</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>41</v>
@@ -2381,7 +2377,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2407,13 +2403,13 @@
         <v>69</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2439,55 +2435,55 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2495,7 +2491,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2518,19 +2514,19 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2579,7 +2575,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2600,10 +2596,10 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2611,11 +2607,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -2634,16 +2630,16 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2693,7 +2689,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -2714,10 +2710,10 @@
         <v>41</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>41</v>
@@ -2725,7 +2721,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2748,19 +2744,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2809,7 +2805,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -2830,10 +2826,10 @@
         <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
@@ -2841,7 +2837,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2864,16 +2860,16 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2923,7 +2919,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -2944,7 +2940,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -2955,7 +2951,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2978,16 +2974,16 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3037,7 +3033,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3058,7 +3054,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3069,7 +3065,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3092,19 +3088,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3153,7 +3149,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3174,7 +3170,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3185,7 +3181,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3208,16 +3204,16 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3267,7 +3263,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3288,18 +3284,18 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3325,13 +3321,13 @@
         <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3357,14 +3353,14 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3381,7 +3377,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>50</v>
@@ -3413,7 +3409,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3436,16 +3432,16 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3495,7 +3491,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>50</v>
@@ -3527,7 +3523,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3550,13 +3546,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3607,7 +3603,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3619,7 +3615,7 @@
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
@@ -3639,7 +3635,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3662,13 +3658,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3719,7 +3715,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3751,7 +3747,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3780,7 +3776,7 @@
         <v>96</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>98</v>
@@ -3833,7 +3829,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3865,11 +3861,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -3891,10 +3887,10 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>98</v>
@@ -3949,7 +3945,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4007,10 +4003,10 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4037,14 +4033,14 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4061,7 +4057,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4093,7 +4089,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4116,16 +4112,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4175,7 +4171,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4207,7 +4203,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4230,13 +4226,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4287,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
